--- a/medicine/Psychotrope/Brauerei_Stadtbühl/Brauerei_Stadtbühl.xlsx
+++ b/medicine/Psychotrope/Brauerei_Stadtbühl/Brauerei_Stadtbühl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brauerei_Stadtb%C3%BChl</t>
+          <t>Brauerei_Stadtbühl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brauerei Stadtbühl est une brasserie à Gossau, dans le canton de Saint-Gall (Suisse). Elle se situe sur la colline du même nom.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brauerei_Stadtb%C3%BChl</t>
+          <t>Brauerei_Stadtbühl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Alois Krucker, de Niederhelpschwil, fonde la brasserie en 1858[1]. Au cours des premières décennies, on brasse principalement de la Schwarzbier. Le bâtiment en brique est construit en 1880 et agrandi en 1900. La machine à glace de 1911 est toujours là et est encore utilisable. La brasserie est dirigée par la famille fondatrice depuis les cinquième et sixième générations. En 2013, l'entreprise individuelle est transformée en société par actions.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Alois Krucker, de Niederhelpschwil, fonde la brasserie en 1858. Au cours des premières décennies, on brasse principalement de la Schwarzbier. Le bâtiment en brique est construit en 1880 et agrandi en 1900. La machine à glace de 1911 est toujours là et est encore utilisable. La brasserie est dirigée par la famille fondatrice depuis les cinquième et sixième générations. En 2013, l'entreprise individuelle est transformée en société par actions.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brauerei_Stadtb%C3%BChl</t>
+          <t>Brauerei_Stadtbühl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lager hell, 4,8 Vol.-%
 Lager dunkel, 4,8%
